--- a/medicine/Enfance/Infirmité_motrice_cérébrale/Infirmité_motrice_cérébrale.xlsx
+++ b/medicine/Enfance/Infirmité_motrice_cérébrale/Infirmité_motrice_cérébrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
+          <t>Infirmité_motrice_cérébrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infirmité motrice d'origine cérébrale (IMC ou IMOC) a été définie en 1955 par le professeur Guy Tardieu[1] comme étant une infirmité motrice due à des lésions survenues durant la période périnatale. Aujourd'hui, on utilise plus fréquemment le terme de « paralysie cérébrale ».
-Les sujets souffrant d'affections neurologiques dégénératives[2] ou de retards moteurs liés à une déficience intellectuelle ne peuvent donc pas être considérés comme IMOC.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infirmité motrice d'origine cérébrale (IMC ou IMOC) a été définie en 1955 par le professeur Guy Tardieu comme étant une infirmité motrice due à des lésions survenues durant la période périnatale. Aujourd'hui, on utilise plus fréquemment le terme de « paralysie cérébrale ».
+Les sujets souffrant d'affections neurologiques dégénératives ou de retards moteurs liés à une déficience intellectuelle ne peuvent donc pas être considérés comme IMOC.
 Il s'agit d'un état pathologique (non évolutif) non héréditaire comportant diverses atteintes neurologiques. Une cause exacte n'est pas toujours retrouvée mais elle est liée à la prématurité, l'hypoxie périnatale, les traumatismes cérébraux et l'ictère néonatal. Le degré d'atteinte neurologique est sévère dans un tiers des cas et modéré dans un sixième des cas.
 Depuis 2017, le terme de paralysie cérébrale est préféré, dans l’objectif de ne pas réduire les personnes à une définition restrictive.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
+          <t>Infirmité_motrice_cérébrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Étant donné la variabilité des atteintes neurologiques possibles, une classification s'impose en se basant sur le schéma de l'implication motrice et la distribution topographique.
 Les troubles moteurs peuvent être classés en trois groupes :
@@ -526,7 +540,7 @@
 hémiplégie : spasticité des deux membres ipsilatéraux. Varus équin du membre inférieur et coude, poignet, doigts fléchis avec adduction du pouce, mais surtout perte de la proprioception et de la stéréognosie ;
 paraplégie : deux membres inférieurs spastiques, rare. Il faut exclure une atteinte de la moelle épinière ;
 diplégie : le plus fréquent, atteinte des deux membres inférieurs, spasticité marquée à leur racine, réflexes ostéotendineux exacerbés et signe de Babinski. Les hanches sont en adduction flexion et rotation interne. Genu valgum et valgus équin des pieds ;
-quadriplégie : atteinte des membres et du tronc avec difficulté d'élocution et dysphasie. 45 % de retard mental. Scoliose, rétractions et luxations de hanche[3].</t>
+quadriplégie : atteinte des membres et du tronc avec difficulté d'élocution et dysphasie. 45 % de retard mental. Scoliose, rétractions et luxations de hanche.</t>
         </is>
       </c>
     </row>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
+          <t>Infirmité_motrice_cérébrale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,23 +570,96 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Causes d'origine pré ou anté-natale
-Les malformations vasculaires pendant la gestation.
-Les spina bifida[2] avec hydrocéphalie.
+          <t>Causes d'origine pré ou anté-natale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les malformations vasculaires pendant la gestation.
+Les spina bifida avec hydrocéphalie.
 Manque d'oxygène : anoxie
 Incompatibilité du rhésus chez les parents
 Maladies métaboliques
 Retard de la croissance intra-utérin
 Embryopathies
-Infection foeto-maternelle (rubéole, toxoplasme, cytomégalovirus)
-Causes durant l'accouchement ou causes néo-natales
-Traumatisme (application du forceps, hémorragie)
+Infection foeto-maternelle (rubéole, toxoplasme, cytomégalovirus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Infirmité_motrice_cérébrale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Causes durant l'accouchement ou causes néo-natales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Traumatisme (application du forceps, hémorragie)
 Anoxie
 Asphyxie
 Analgésiques (dues à une administration de médicaments pouvant affecter la respiration de l'enfant)
-Prématurité (moins de 32 semaines d'aménorhée)
-Causes après l'accouchement ou causes post-natales
-Tumeurs au cerveau
+Prématurité (moins de 32 semaines d'aménorhée)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Infirmité_motrice_cérébrale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Causes après l'accouchement ou causes post-natales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tumeurs au cerveau
 Accident vasculaire cérébral (AVC)
 Traumatisme crânien (bébé qui tombe d'une hauteur…)
 Anoxie (empoisonnement ou étranglement)
@@ -582,74 +669,151 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Infirmité_motrice_cérébrale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Types d'infirmité motrice cérébrale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forme hémiplégique
-Les sujets atteints de cette forme d'IMC sont relativement autonomes physiquement mais souffrent souvent de troubles cognitifs importants. Ces troubles peuvent être dus à une épilepsie présente dans 40 % des cas ou à des troubles visuels importants (comme le strabisme…)[1].
-Forme spastique
-Cette forme est la plus fréquente et est le plus souvent la cause d'une naissance prématurée. Par spasticité on entend hypertonie musculaire ce qui perturbe la motricité fine du sujet qui peut également présenter des troubles de la sensibilité proprioceptive et de la stéréognosie.
-Forme athétosique
-Cette forme qui représente 10 à 20 % des infirmités motrices cérébrales se caractérise par des mouvements involontaires exacerbés par l'émotion. Les personnes purement athétosiques ne souffrent généralement pas de troubles cognitifs associées.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Forme hémiplégique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sujets atteints de cette forme d'IMC sont relativement autonomes physiquement mais souffrent souvent de troubles cognitifs importants. Ces troubles peuvent être dus à une épilepsie présente dans 40 % des cas ou à des troubles visuels importants (comme le strabisme…).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Infirmité_motrice_cérébrale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Types d'infirmité motrice cérébrale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Forme spastique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette forme est la plus fréquente et est le plus souvent la cause d'une naissance prématurée. Par spasticité on entend hypertonie musculaire ce qui perturbe la motricité fine du sujet qui peut également présenter des troubles de la sensibilité proprioceptive et de la stéréognosie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Infirmité_motrice_cérébrale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Types d'infirmité motrice cérébrale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Forme athétosique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette forme qui représente 10 à 20 % des infirmités motrices cérébrales se caractérise par des mouvements involontaires exacerbés par l'émotion. Les personnes purement athétosiques ne souffrent généralement pas de troubles cognitifs associées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Infirmité_motrice_cérébrale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infirmit%C3%A9_motrice_c%C3%A9r%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La prise en charge du sujet IMC est souvent pluridisciplinaire :
-la kinésithérapie permet de prévenir les raideurs ; d'autre part, depuis le début des années 1970 des praticiens d'Amérique du Sud, notamment Ramón Cuevas, KGO/PT — c'est-à-dire kinésithérapeute diplômé — développent une méthode spécifique : Medek[4], de l'espagnol : Método Dinámico de Estimulación Kinésica[5]. Le résultat de la thérapie dépend du degré de handicap, de l'expérience du thérapeute, de la fréquence de l'intervention (environ 45 minutes d'exercices spécifiques à faire systématiquement chaque jour), et de l'âge à partir duquel la méthode Medek[4] est employée ;
+la kinésithérapie permet de prévenir les raideurs ; d'autre part, depuis le début des années 1970 des praticiens d'Amérique du Sud, notamment Ramón Cuevas, KGO/PT — c'est-à-dire kinésithérapeute diplômé — développent une méthode spécifique : Medek, de l'espagnol : Método Dinámico de Estimulación Kinésica. Le résultat de la thérapie dépend du degré de handicap, de l'expérience du thérapeute, de la fréquence de l'intervention (environ 45 minutes d'exercices spécifiques à faire systématiquement chaque jour), et de l'âge à partir duquel la méthode Medek est employée ;
 l'ergothérapie permet de travailler sur la motricité fine mais aussi d'aménager l'environnement de la personne au mieux. Ce type de thérapie a pour but de maintenir ou de développer l'autonomie de l'enfant infirme moteur cérébral dans les occupations quotidiennes et cela à travers des activités ludiques et artisanales et des mises en situation (habillage, soins personnels, alimentation, communication…). Parfois même, l’ergothérapie permet de faire le choix des aides techniques nécessaires et indispensables pour un bon positionnement de la personne à domicile, à l'école ou au travail ;
 l'orthophonie permet entre autres de travailler l'élocution (troubles très présents notamment dans la forme athétosique) ;
 la psychomotricité permet de travailler autour de la prise de conscience du corps, du schéma corporel, de la proprioception, de l'image du corps, de l'espace et du temps. Elle propose des stimulations adaptées au patient afin de mettre à profit ses capacités et possibilités d'évolution ;
-l'éducation conductive, méthode de rééducation motrice élaborée dans les années 1940 par le pédiatre et pédagogue hongrois, András Pető, est particulièrement adaptée aux enfants IMC. Elle est pratiquée dans plus de 170 structures à travers le monde. La première école française d'éducation conductive ("Enfance Handicap Moteur[6]") fut ouverte en 2009 dans la Nièvre. Cette structure accueille pour des sessions de 2 à 6 semaines des enfants IMC sans déficience cognitive venant de toute la France. Les enfants IMC y apprennent comment contourner leur handicap moteur ;
+l'éducation conductive, méthode de rééducation motrice élaborée dans les années 1940 par le pédiatre et pédagogue hongrois, András Pető, est particulièrement adaptée aux enfants IMC. Elle est pratiquée dans plus de 170 structures à travers le monde. La première école française d'éducation conductive ("Enfance Handicap Moteur") fut ouverte en 2009 dans la Nièvre. Cette structure accueille pour des sessions de 2 à 6 semaines des enfants IMC sans déficience cognitive venant de toute la France. Les enfants IMC y apprennent comment contourner leur handicap moteur ;
 les activités physiques adaptées peuvent aider l'enfant IMC à entretenir un rapport avec son corps autrement que par les soins médicaux et paramédicaux. Les expériences corporelles vécues en dehors du temps de rééducation, c'est-à-dire en pratiquant une activité physique vont favoriser les progrès de l’enfant IMC, satisfaire son besoin d’autonomie, de compréhension des mouvements de son corps, de découverte et de perception de l’espace environnant.</t>
         </is>
       </c>
